--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H2">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I2">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J2">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.396544333333333</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N2">
-        <v>7.189633</v>
+        <v>0.212759</v>
       </c>
       <c r="O2">
-        <v>0.2442214476712194</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P2">
-        <v>0.2442214476712194</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q2">
-        <v>9.657855577798999</v>
+        <v>0.2558331942646667</v>
       </c>
       <c r="R2">
-        <v>86.92070020019099</v>
+        <v>2.302498748382</v>
       </c>
       <c r="S2">
-        <v>0.0286311120290609</v>
+        <v>0.0005698435078536924</v>
       </c>
       <c r="T2">
-        <v>0.02863111202906091</v>
+        <v>0.0005698435078536923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H3">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I3">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J3">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.586282</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N3">
-        <v>1.758846</v>
+        <v>10.781701</v>
       </c>
       <c r="O3">
-        <v>0.05974545798801324</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P3">
-        <v>0.05974545798801324</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q3">
-        <v>2.362663108338</v>
+        <v>12.96451386985533</v>
       </c>
       <c r="R3">
-        <v>21.263967975042</v>
+        <v>116.680624828698</v>
       </c>
       <c r="S3">
-        <v>0.007004212435859473</v>
+        <v>0.02887719118095903</v>
       </c>
       <c r="T3">
-        <v>0.007004212435859474</v>
+        <v>0.02887719118095902</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H4">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I4">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J4">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>3.932926</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N4">
-        <v>11.798778</v>
+        <v>0.150307</v>
       </c>
       <c r="O4">
-        <v>0.4007874454664563</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P4">
-        <v>0.4007874454664564</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q4">
-        <v>15.849333883734</v>
+        <v>0.1807374537873333</v>
       </c>
       <c r="R4">
-        <v>142.644004953606</v>
+        <v>1.626637084086</v>
       </c>
       <c r="S4">
-        <v>0.04698600536689691</v>
+        <v>0.0004025750644389423</v>
       </c>
       <c r="T4">
-        <v>0.04698600536689691</v>
+        <v>0.0004025750644389422</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.029909</v>
+        <v>3.607366</v>
       </c>
       <c r="H5">
-        <v>12.089727</v>
+        <v>10.822098</v>
       </c>
       <c r="I5">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J5">
-        <v>0.1172342245207114</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.897244666666667</v>
+        <v>1.384819333333333</v>
       </c>
       <c r="N5">
-        <v>8.691734</v>
+        <v>4.154458</v>
       </c>
       <c r="O5">
-        <v>0.2952456488743109</v>
+        <v>0.1271833308158668</v>
       </c>
       <c r="P5">
-        <v>0.295245648874311</v>
+        <v>0.1271833308158667</v>
       </c>
       <c r="Q5">
-        <v>11.675632357402</v>
+        <v>4.995550179209334</v>
       </c>
       <c r="R5">
-        <v>105.080691216618</v>
+        <v>44.95995161288401</v>
       </c>
       <c r="S5">
-        <v>0.03461289468889409</v>
+        <v>0.01112710117997751</v>
       </c>
       <c r="T5">
-        <v>0.03461289468889409</v>
+        <v>0.01112710117997751</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.678840333333333</v>
+        <v>3.607366</v>
       </c>
       <c r="H6">
-        <v>11.036521</v>
+        <v>10.822098</v>
       </c>
       <c r="I6">
-        <v>0.1070212735855447</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="J6">
-        <v>0.1070212735855447</v>
+        <v>0.08748867566683784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.396544333333333</v>
+        <v>5.788629666666666</v>
       </c>
       <c r="N6">
-        <v>7.189633</v>
+        <v>17.365889</v>
       </c>
       <c r="O6">
-        <v>0.2442214476712194</v>
+        <v>0.5316341158337914</v>
       </c>
       <c r="P6">
-        <v>0.2442214476712194</v>
+        <v>0.5316341158337913</v>
       </c>
       <c r="Q6">
-        <v>8.816503954088112</v>
+        <v>20.88170584612467</v>
       </c>
       <c r="R6">
-        <v>79.34853558679301</v>
+        <v>187.935352615122</v>
       </c>
       <c r="S6">
-        <v>0.02613689036667935</v>
+        <v>0.04651196473360867</v>
       </c>
       <c r="T6">
-        <v>0.02613689036667935</v>
+        <v>0.04651196473360866</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>11.036521</v>
       </c>
       <c r="I7">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J7">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.586282</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N7">
-        <v>1.758846</v>
+        <v>0.212759</v>
       </c>
       <c r="O7">
-        <v>0.05974545798801324</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P7">
-        <v>0.05974545798801324</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q7">
-        <v>2.156837868307333</v>
+        <v>0.2609021301598889</v>
       </c>
       <c r="R7">
-        <v>19.411540814766</v>
+        <v>2.348119171439</v>
       </c>
       <c r="S7">
-        <v>0.006394035004828829</v>
+        <v>0.0005811340685642415</v>
       </c>
       <c r="T7">
-        <v>0.006394035004828829</v>
+        <v>0.0005811340685642413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,10 +921,10 @@
         <v>11.036521</v>
       </c>
       <c r="I8">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J8">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.932926</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N8">
-        <v>11.798778</v>
+        <v>10.781701</v>
       </c>
       <c r="O8">
-        <v>0.4007874454664563</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P8">
-        <v>0.4007874454664564</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q8">
-        <v>14.46860679681533</v>
+        <v>13.22138550024678</v>
       </c>
       <c r="R8">
-        <v>130.217461171338</v>
+        <v>118.992469502221</v>
       </c>
       <c r="S8">
-        <v>0.04289278285091719</v>
+        <v>0.02944934770408373</v>
       </c>
       <c r="T8">
-        <v>0.04289278285091719</v>
+        <v>0.02944934770408372</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,45 +983,45 @@
         <v>11.036521</v>
       </c>
       <c r="I9">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J9">
-        <v>0.1070212735855447</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>2.897244666666667</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N9">
-        <v>8.691734</v>
+        <v>0.150307</v>
       </c>
       <c r="O9">
-        <v>0.2952456488743109</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P9">
-        <v>0.295245648874311</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q9">
-        <v>10.65850053526822</v>
+        <v>0.1843184846607778</v>
       </c>
       <c r="R9">
-        <v>95.92650481741401</v>
+        <v>1.658866361947</v>
       </c>
       <c r="S9">
-        <v>0.03159756536311929</v>
+        <v>0.0004105514617181197</v>
       </c>
       <c r="T9">
-        <v>0.03159756536311929</v>
+        <v>0.0004105514617181196</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.448480333333334</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H10">
-        <v>28.345441</v>
+        <v>11.036521</v>
       </c>
       <c r="I10">
-        <v>0.2748660738437335</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J10">
-        <v>0.2748660738437334</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,33 +1057,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.396544333333333</v>
+        <v>1.384819333333333</v>
       </c>
       <c r="N10">
-        <v>7.189633</v>
+        <v>4.154458</v>
       </c>
       <c r="O10">
-        <v>0.2442214476712194</v>
+        <v>0.1271833308158668</v>
       </c>
       <c r="P10">
-        <v>0.2442214476712194</v>
+        <v>0.1271833308158667</v>
       </c>
       <c r="Q10">
-        <v>22.64370200146145</v>
+        <v>5.094529217846445</v>
       </c>
       <c r="R10">
-        <v>203.793318013153</v>
+        <v>45.850762960618</v>
       </c>
       <c r="S10">
-        <v>0.06712819046982088</v>
+        <v>0.01134756734248263</v>
       </c>
       <c r="T10">
-        <v>0.06712819046982088</v>
+        <v>0.01134756734248262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.448480333333334</v>
+        <v>3.678840333333333</v>
       </c>
       <c r="H11">
-        <v>28.345441</v>
+        <v>11.036521</v>
       </c>
       <c r="I11">
-        <v>0.2748660738437335</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="J11">
-        <v>0.2748660738437334</v>
+        <v>0.08922212737855864</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.586282</v>
+        <v>5.788629666666666</v>
       </c>
       <c r="N11">
-        <v>1.758846</v>
+        <v>17.365889</v>
       </c>
       <c r="O11">
-        <v>0.05974545798801324</v>
+        <v>0.5316341158337914</v>
       </c>
       <c r="P11">
-        <v>0.05974545798801324</v>
+        <v>0.5316341158337913</v>
       </c>
       <c r="Q11">
-        <v>5.539473946787334</v>
+        <v>21.29544429246322</v>
       </c>
       <c r="R11">
-        <v>49.855265521086</v>
+        <v>191.658998632169</v>
       </c>
       <c r="S11">
-        <v>0.01642199946716092</v>
+        <v>0.04743352680170993</v>
       </c>
       <c r="T11">
-        <v>0.01642199946716092</v>
+        <v>0.04743352680170992</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.448480333333334</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H12">
-        <v>28.345441</v>
+        <v>34.729888</v>
       </c>
       <c r="I12">
-        <v>0.2748660738437335</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J12">
-        <v>0.2748660738437334</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.932926</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N12">
-        <v>11.798778</v>
+        <v>0.212759</v>
       </c>
       <c r="O12">
-        <v>0.4007874454664563</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P12">
-        <v>0.4007874454664564</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q12">
-        <v>37.16017396345534</v>
+        <v>0.8210106934435557</v>
       </c>
       <c r="R12">
-        <v>334.441565671098</v>
+        <v>7.389096240992001</v>
       </c>
       <c r="S12">
-        <v>0.1101628715812243</v>
+        <v>0.001828721307576947</v>
       </c>
       <c r="T12">
-        <v>0.1101628715812243</v>
+        <v>0.001828721307576946</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.448480333333334</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H13">
-        <v>28.345441</v>
+        <v>34.729888</v>
       </c>
       <c r="I13">
-        <v>0.2748660738437335</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J13">
-        <v>0.2748660738437334</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,43 +1243,43 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.897244666666667</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N13">
-        <v>8.691734</v>
+        <v>10.781701</v>
       </c>
       <c r="O13">
-        <v>0.2952456488743109</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P13">
-        <v>0.295245648874311</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q13">
-        <v>27.37455925385489</v>
+        <v>41.60525201994312</v>
       </c>
       <c r="R13">
-        <v>246.371033284694</v>
+        <v>374.447268179488</v>
       </c>
       <c r="S13">
-        <v>0.08115301232552735</v>
+        <v>0.09267164421069694</v>
       </c>
       <c r="T13">
-        <v>0.08115301232552735</v>
+        <v>0.0926716442106969</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.173862333333333</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H14">
-        <v>6.521586999999999</v>
+        <v>34.729888</v>
       </c>
       <c r="I14">
-        <v>0.06323990563139702</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J14">
-        <v>0.063239905631397</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>2.396544333333333</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N14">
-        <v>7.189633</v>
+        <v>0.150307</v>
       </c>
       <c r="O14">
-        <v>0.2442214476712194</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P14">
-        <v>0.2442214476712194</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q14">
-        <v>5.209757456396777</v>
+        <v>0.5800161417351112</v>
       </c>
       <c r="R14">
-        <v>46.887817107571</v>
+        <v>5.220145275616</v>
       </c>
       <c r="S14">
-        <v>0.01544454130389108</v>
+        <v>0.001291929429908808</v>
       </c>
       <c r="T14">
-        <v>0.01544454130389108</v>
+        <v>0.001291929429908808</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.173862333333333</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H15">
-        <v>6.521586999999999</v>
+        <v>34.729888</v>
       </c>
       <c r="I15">
-        <v>0.06323990563139702</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J15">
-        <v>0.063239905631397</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.586282</v>
+        <v>1.384819333333333</v>
       </c>
       <c r="N15">
-        <v>1.758846</v>
+        <v>4.154458</v>
       </c>
       <c r="O15">
-        <v>0.05974545798801324</v>
+        <v>0.1271833308158668</v>
       </c>
       <c r="P15">
-        <v>0.05974545798801324</v>
+        <v>0.1271833308158667</v>
       </c>
       <c r="Q15">
-        <v>1.274496356511333</v>
+        <v>16.03154011563378</v>
       </c>
       <c r="R15">
-        <v>11.470467208602</v>
+        <v>144.283861040704</v>
       </c>
       <c r="S15">
-        <v>0.003778297125066552</v>
+        <v>0.03570869324462658</v>
       </c>
       <c r="T15">
-        <v>0.003778297125066552</v>
+        <v>0.03570869324462656</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.173862333333333</v>
+        <v>11.57662933333333</v>
       </c>
       <c r="H16">
-        <v>6.521586999999999</v>
+        <v>34.729888</v>
       </c>
       <c r="I16">
-        <v>0.06323990563139702</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="J16">
-        <v>0.063239905631397</v>
+        <v>0.2807655139675878</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.932926</v>
+        <v>5.788629666666666</v>
       </c>
       <c r="N16">
-        <v>11.798778</v>
+        <v>17.365889</v>
       </c>
       <c r="O16">
-        <v>0.4007874454664563</v>
+        <v>0.5316341158337914</v>
       </c>
       <c r="P16">
-        <v>0.4007874454664564</v>
+        <v>0.5316341158337913</v>
       </c>
       <c r="Q16">
-        <v>8.549639691187332</v>
+        <v>67.01281999893689</v>
       </c>
       <c r="R16">
-        <v>76.946757220686</v>
+        <v>603.115379990432</v>
       </c>
       <c r="S16">
-        <v>0.02534576022954738</v>
+        <v>0.1492645257747785</v>
       </c>
       <c r="T16">
-        <v>0.02534576022954738</v>
+        <v>0.1492645257747785</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,7 +1464,7 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.173862333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H17">
-        <v>6.521586999999999</v>
+        <v>3.386859</v>
       </c>
       <c r="I17">
-        <v>0.06323990563139702</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J17">
-        <v>0.063239905631397</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>2.897244666666667</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N17">
-        <v>8.691734</v>
+        <v>0.212759</v>
       </c>
       <c r="O17">
-        <v>0.2952456488743109</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P17">
-        <v>0.295245648874311</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q17">
-        <v>6.298211051317556</v>
+        <v>0.08006497044233335</v>
       </c>
       <c r="R17">
-        <v>56.683899461858</v>
+        <v>0.7205847339810001</v>
       </c>
       <c r="S17">
-        <v>0.018671306972892</v>
+        <v>0.0001783369188826278</v>
       </c>
       <c r="T17">
-        <v>0.018671306972892</v>
+        <v>0.0001783369188826278</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.740567333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H18">
-        <v>11.221702</v>
+        <v>3.386859</v>
       </c>
       <c r="I18">
-        <v>0.1088169759145526</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J18">
-        <v>0.1088169759145526</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,33 +1553,33 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.396544333333333</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N18">
-        <v>7.189633</v>
+        <v>10.781701</v>
       </c>
       <c r="O18">
-        <v>0.2442214476712194</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P18">
-        <v>0.2442214476712194</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q18">
-        <v>8.964435446151779</v>
+        <v>4.057344563017667</v>
       </c>
       <c r="R18">
-        <v>80.679919015366</v>
+        <v>36.51610106715901</v>
       </c>
       <c r="S18">
-        <v>0.02657543938905624</v>
+        <v>0.009037339603277638</v>
       </c>
       <c r="T18">
-        <v>0.02657543938905625</v>
+        <v>0.009037339603277635</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1597,51 +1597,51 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.740567333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H19">
-        <v>11.221702</v>
+        <v>3.386859</v>
       </c>
       <c r="I19">
-        <v>0.1088169759145526</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J19">
-        <v>0.1088169759145526</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.586282</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N19">
-        <v>1.758846</v>
+        <v>0.150307</v>
       </c>
       <c r="O19">
-        <v>0.05974545798801324</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P19">
-        <v>0.05974545798801324</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q19">
-        <v>2.193027297321333</v>
+        <v>0.05656317952366667</v>
       </c>
       <c r="R19">
-        <v>19.737245675892</v>
+        <v>0.509068615713</v>
       </c>
       <c r="S19">
-        <v>0.006501320062885549</v>
+        <v>0.000125988969991827</v>
       </c>
       <c r="T19">
-        <v>0.00650132006288555</v>
+        <v>0.000125988969991827</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.740567333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H20">
-        <v>11.221702</v>
+        <v>3.386859</v>
       </c>
       <c r="I20">
-        <v>0.1088169759145526</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J20">
-        <v>0.1088169759145526</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.932926</v>
+        <v>1.384819333333333</v>
       </c>
       <c r="N20">
-        <v>11.798778</v>
+        <v>4.154458</v>
       </c>
       <c r="O20">
-        <v>0.4007874454664563</v>
+        <v>0.1271833308158668</v>
       </c>
       <c r="P20">
-        <v>0.4007874454664564</v>
+        <v>0.1271833308158667</v>
       </c>
       <c r="Q20">
-        <v>14.71137452001733</v>
+        <v>1.563395940824667</v>
       </c>
       <c r="R20">
-        <v>132.402370680156</v>
+        <v>14.070563467422</v>
       </c>
       <c r="S20">
-        <v>0.04361247780017843</v>
+        <v>0.003482312096537793</v>
       </c>
       <c r="T20">
-        <v>0.04361247780017843</v>
+        <v>0.003482312096537791</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.740567333333333</v>
+        <v>1.128953</v>
       </c>
       <c r="H21">
-        <v>11.221702</v>
+        <v>3.386859</v>
       </c>
       <c r="I21">
-        <v>0.1088169759145526</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="J21">
-        <v>0.1088169759145526</v>
+        <v>0.02738025552719174</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.897244666666667</v>
+        <v>5.788629666666666</v>
       </c>
       <c r="N21">
-        <v>8.691734</v>
+        <v>17.365889</v>
       </c>
       <c r="O21">
-        <v>0.2952456488743109</v>
+        <v>0.5316341158337914</v>
       </c>
       <c r="P21">
-        <v>0.295245648874311</v>
+        <v>0.5316341158337913</v>
       </c>
       <c r="Q21">
-        <v>10.83733875680756</v>
+        <v>6.535090828072334</v>
       </c>
       <c r="R21">
-        <v>97.536048811268</v>
+        <v>58.815817452651</v>
       </c>
       <c r="S21">
-        <v>0.03212773866243233</v>
+        <v>0.01455627793850186</v>
       </c>
       <c r="T21">
-        <v>0.03212773866243234</v>
+        <v>0.01455627793850186</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>11.30319166666667</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H22">
-        <v>33.909575</v>
+        <v>11.403533</v>
       </c>
       <c r="I22">
-        <v>0.328821546504061</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J22">
-        <v>0.328821546504061</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>2.396544333333333</v>
+        <v>0.07091966666666667</v>
       </c>
       <c r="N22">
-        <v>7.189633</v>
+        <v>0.212759</v>
       </c>
       <c r="O22">
-        <v>0.2442214476712194</v>
+        <v>0.006513340195292141</v>
       </c>
       <c r="P22">
-        <v>0.2442214476712194</v>
+        <v>0.00651334019529214</v>
       </c>
       <c r="Q22">
-        <v>27.08859993733056</v>
+        <v>0.2695782530607778</v>
       </c>
       <c r="R22">
-        <v>243.797399435975</v>
+        <v>2.426204277547</v>
       </c>
       <c r="S22">
-        <v>0.08030527411271099</v>
+        <v>0.0006004592867894321</v>
       </c>
       <c r="T22">
-        <v>0.08030527411271098</v>
+        <v>0.0006004592867894318</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>11.30319166666667</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H23">
-        <v>33.909575</v>
+        <v>11.403533</v>
       </c>
       <c r="I23">
-        <v>0.328821546504061</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J23">
-        <v>0.328821546504061</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,33 +1863,33 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.586282</v>
+        <v>3.593900333333333</v>
       </c>
       <c r="N23">
-        <v>1.758846</v>
+        <v>10.781701</v>
       </c>
       <c r="O23">
-        <v>0.05974545798801324</v>
+        <v>0.3300677597512748</v>
       </c>
       <c r="P23">
-        <v>0.05974545798801324</v>
+        <v>0.3300677597512747</v>
       </c>
       <c r="Q23">
-        <v>6.626857816716668</v>
+        <v>13.66105368329256</v>
       </c>
       <c r="R23">
-        <v>59.64172035045</v>
+        <v>122.949483149633</v>
       </c>
       <c r="S23">
-        <v>0.01964559389221192</v>
+        <v>0.03042866573370295</v>
       </c>
       <c r="T23">
-        <v>0.01964559389221192</v>
+        <v>0.03042866573370294</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,108 +1907,480 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>11.30319166666667</v>
+        <v>3.801177666666666</v>
       </c>
       <c r="H24">
-        <v>33.909575</v>
+        <v>11.403533</v>
       </c>
       <c r="I24">
-        <v>0.328821546504061</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="J24">
-        <v>0.328821546504061</v>
+        <v>0.09218914854523422</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>3.932926</v>
+        <v>0.05010233333333333</v>
       </c>
       <c r="N24">
-        <v>11.798778</v>
+        <v>0.150307</v>
       </c>
       <c r="O24">
-        <v>0.4007874454664563</v>
+        <v>0.004601453403775049</v>
       </c>
       <c r="P24">
-        <v>0.4007874454664564</v>
+        <v>0.004601453403775048</v>
       </c>
       <c r="Q24">
-        <v>44.45461638881667</v>
+        <v>0.1904478705145555</v>
       </c>
       <c r="R24">
-        <v>400.09154749935</v>
+        <v>1.714030834631</v>
       </c>
       <c r="S24">
-        <v>0.1317875476376922</v>
+        <v>0.0004242040713645916</v>
       </c>
       <c r="T24">
-        <v>0.1317875476376922</v>
+        <v>0.0004242040713645915</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.801177666666666</v>
+      </c>
+      <c r="H25">
+        <v>11.403533</v>
+      </c>
+      <c r="I25">
+        <v>0.09218914854523422</v>
+      </c>
+      <c r="J25">
+        <v>0.09218914854523422</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.384819333333333</v>
+      </c>
+      <c r="N25">
+        <v>4.154458</v>
+      </c>
+      <c r="O25">
+        <v>0.1271833308158668</v>
+      </c>
+      <c r="P25">
+        <v>0.1271833308158667</v>
+      </c>
+      <c r="Q25">
+        <v>5.263944322234889</v>
+      </c>
+      <c r="R25">
+        <v>47.375498900114</v>
+      </c>
+      <c r="S25">
+        <v>0.01172492297706161</v>
+      </c>
+      <c r="T25">
+        <v>0.0117249229770616</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.801177666666666</v>
+      </c>
+      <c r="H26">
+        <v>11.403533</v>
+      </c>
+      <c r="I26">
+        <v>0.09218914854523422</v>
+      </c>
+      <c r="J26">
+        <v>0.09218914854523422</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>5.788629666666666</v>
+      </c>
+      <c r="N26">
+        <v>17.365889</v>
+      </c>
+      <c r="O26">
+        <v>0.5316341158337914</v>
+      </c>
+      <c r="P26">
+        <v>0.5316341158337913</v>
+      </c>
+      <c r="Q26">
+        <v>22.00360980953744</v>
+      </c>
+      <c r="R26">
+        <v>198.032488285837</v>
+      </c>
+      <c r="S26">
+        <v>0.04901089647631565</v>
+      </c>
+      <c r="T26">
+        <v>0.04901089647631564</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>11.30319166666667</v>
-      </c>
-      <c r="H25">
-        <v>33.909575</v>
-      </c>
-      <c r="I25">
-        <v>0.328821546504061</v>
-      </c>
-      <c r="J25">
-        <v>0.328821546504061</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>2.897244666666667</v>
-      </c>
-      <c r="N25">
-        <v>8.691734</v>
-      </c>
-      <c r="O25">
-        <v>0.2952456488743109</v>
-      </c>
-      <c r="P25">
-        <v>0.295245648874311</v>
-      </c>
-      <c r="Q25">
-        <v>32.74811177256112</v>
-      </c>
-      <c r="R25">
-        <v>294.7330059530501</v>
-      </c>
-      <c r="S25">
-        <v>0.0970831308614459</v>
-      </c>
-      <c r="T25">
-        <v>0.0970831308614459</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>17.43941</v>
+      </c>
+      <c r="H27">
+        <v>52.31823</v>
+      </c>
+      <c r="I27">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="J27">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>0.07091966666666667</v>
+      </c>
+      <c r="N27">
+        <v>0.212759</v>
+      </c>
+      <c r="O27">
+        <v>0.006513340195292141</v>
+      </c>
+      <c r="P27">
+        <v>0.00651334019529214</v>
+      </c>
+      <c r="Q27">
+        <v>1.236797144063333</v>
+      </c>
+      <c r="R27">
+        <v>11.13117429657</v>
+      </c>
+      <c r="S27">
+        <v>0.002754845105625201</v>
+      </c>
+      <c r="T27">
+        <v>0.002754845105625201</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>17.43941</v>
+      </c>
+      <c r="H28">
+        <v>52.31823</v>
+      </c>
+      <c r="I28">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="J28">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>3.593900333333333</v>
+      </c>
+      <c r="N28">
+        <v>10.781701</v>
+      </c>
+      <c r="O28">
+        <v>0.3300677597512748</v>
+      </c>
+      <c r="P28">
+        <v>0.3300677597512747</v>
+      </c>
+      <c r="Q28">
+        <v>62.67550141213666</v>
+      </c>
+      <c r="R28">
+        <v>564.07951270923</v>
+      </c>
+      <c r="S28">
+        <v>0.1396035713185545</v>
+      </c>
+      <c r="T28">
+        <v>0.1396035713185544</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>17.43941</v>
+      </c>
+      <c r="H29">
+        <v>52.31823</v>
+      </c>
+      <c r="I29">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="J29">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+      <c r="L29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M29">
+        <v>0.05010233333333333</v>
+      </c>
+      <c r="N29">
+        <v>0.150307</v>
+      </c>
+      <c r="O29">
+        <v>0.004601453403775049</v>
+      </c>
+      <c r="P29">
+        <v>0.004601453403775048</v>
+      </c>
+      <c r="Q29">
+        <v>0.8737551329566666</v>
+      </c>
+      <c r="R29">
+        <v>7.86379619661</v>
+      </c>
+      <c r="S29">
+        <v>0.001946204406352761</v>
+      </c>
+      <c r="T29">
+        <v>0.00194620440635276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>17.43941</v>
+      </c>
+      <c r="H30">
+        <v>52.31823</v>
+      </c>
+      <c r="I30">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="J30">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.384819333333333</v>
+      </c>
+      <c r="N30">
+        <v>4.154458</v>
+      </c>
+      <c r="O30">
+        <v>0.1271833308158668</v>
+      </c>
+      <c r="P30">
+        <v>0.1271833308158667</v>
+      </c>
+      <c r="Q30">
+        <v>24.15043212992667</v>
+      </c>
+      <c r="R30">
+        <v>217.35388916934</v>
+      </c>
+      <c r="S30">
+        <v>0.05379273397518066</v>
+      </c>
+      <c r="T30">
+        <v>0.05379273397518064</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>17.43941</v>
+      </c>
+      <c r="H31">
+        <v>52.31823</v>
+      </c>
+      <c r="I31">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="J31">
+        <v>0.4229542789145898</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.788629666666666</v>
+      </c>
+      <c r="N31">
+        <v>17.365889</v>
+      </c>
+      <c r="O31">
+        <v>0.5316341158337914</v>
+      </c>
+      <c r="P31">
+        <v>0.5316341158337913</v>
+      </c>
+      <c r="Q31">
+        <v>100.9502860951633</v>
+      </c>
+      <c r="R31">
+        <v>908.55257485647</v>
+      </c>
+      <c r="S31">
+        <v>0.2248569241088768</v>
+      </c>
+      <c r="T31">
+        <v>0.2248569241088767</v>
       </c>
     </row>
   </sheetData>
